--- a/Churn-prediction/Business objectives based model selection.xlsx
+++ b/Churn-prediction/Business objectives based model selection.xlsx
@@ -1557,7 +1557,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(tp.bnft)</a:t>
+            <a:t>(tp_bnft)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -1641,7 +1641,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(fn.cost) due lost revenue over the next year and marketing costs to gain the customer back in the future</a:t>
+            <a:t>(fn_cost) due lost revenue over the next year and marketing costs to gain the customer back in the future</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1692,7 +1692,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> (fp.cost) relative to the positive benefit that they would have contributed anyway if they had not been presented the promo</a:t>
+            <a:t> (fp_cost) relative to the positive benefit that they would have contributed anyway if they had not been presented the promo</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1743,7 +1743,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> over the next year</a:t>
+            <a:t> (tn_bnft) over the next year</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -1803,7 +1803,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>75% of churn-intent customers presented the promo will respond positively while the rest will churn</a:t>
+            <a:t>80% of churn-intent customers presented the promo will respond positively while the rest will churn</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -2392,7 +2392,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
